--- a/filedatabase/loaithongbao.xlsx
+++ b/filedatabase/loaithongbao.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>_id</t>
   </si>
@@ -24,22 +24,25 @@
     <t>tenLoaiThongBao</t>
   </si>
   <si>
-    <t>DiemThi</t>
-  </si>
-  <si>
-    <t>LichThi</t>
-  </si>
-  <si>
-    <t>LichHoc</t>
-  </si>
-  <si>
-    <t>ThongBaoKhac</t>
-  </si>
-  <si>
-    <t>DangKiTinChi</t>
-  </si>
-  <si>
-    <t>TatCa</t>
+    <t>Tat ca</t>
+  </si>
+  <si>
+    <t>Thong bao</t>
+  </si>
+  <si>
+    <t>Tin tuc</t>
+  </si>
+  <si>
+    <t>Diem thi</t>
+  </si>
+  <si>
+    <t>Dang ky tin chi</t>
+  </si>
+  <si>
+    <t>Lich thi</t>
+  </si>
+  <si>
+    <t>Khac</t>
   </si>
 </sst>
 </file>
@@ -378,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:E10"/>
+  <dimension ref="D4:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,7 +405,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="4:5" x14ac:dyDescent="0.25">
@@ -410,7 +413,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="4:5" x14ac:dyDescent="0.25">
@@ -418,7 +421,7 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="4:5" x14ac:dyDescent="0.25">
@@ -442,7 +445,15 @@
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
